--- a/test_data/CIM - Test Data.xlsx
+++ b/test_data/CIM - Test Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="19155" windowHeight="11820" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="19155" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="account" sheetId="1" r:id="rId1"/>
@@ -542,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -645,7 +645,7 @@
         <v>18</v>
       </c>
       <c r="B6" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>26</v>
@@ -662,7 +662,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>28</v>
@@ -684,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="A1:C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
